--- a/data/trans_dic/P37A$medicoenfermedad-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicoenfermedad-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05608177003444336</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03953209332592117</v>
+        <v>0.03953209332592118</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01874590783512162</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02964452608133702</v>
+        <v>0.03131805296658995</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01270047978860018</v>
+        <v>0.01240493782238693</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03278277508504789</v>
+        <v>0.02952184959465573</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02274974936412883</v>
+        <v>0.02366788068018138</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006785995245298515</v>
+        <v>0.006821417962070715</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01058545110040482</v>
+        <v>0.01059152212494653</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01826914158613225</v>
+        <v>0.01865983938547536</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.018921472450362</v>
+        <v>0.01725271970962098</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02176629815428624</v>
+        <v>0.02235637865353735</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01473390322400334</v>
+        <v>0.01513670091357684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03013391479258504</v>
+        <v>0.03101626550404122</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02454134924827358</v>
+        <v>0.02326509918155731</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08369403132391688</v>
+        <v>0.08413503051316164</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04739828786804233</v>
+        <v>0.04833007200311217</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09174176750202742</v>
+        <v>0.08948128264402613</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0602781966725881</v>
+        <v>0.06171871109145033</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0419229335770506</v>
+        <v>0.03945418472893731</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04854347275556344</v>
+        <v>0.0528350252891136</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06239994324857984</v>
+        <v>0.06102539608098047</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0457236647955172</v>
+        <v>0.04453240505368253</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05344411437410659</v>
+        <v>0.05426508284695609</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04179560070777354</v>
+        <v>0.04128606868504373</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06873415838268589</v>
+        <v>0.06598123593783105</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04823892401666774</v>
+        <v>0.04780822730195552</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0246022260678729</v>
+        <v>0.0243394122429605</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02889934304878032</v>
+        <v>0.02962361917421093</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03461639918128743</v>
+        <v>0.03422850072857925</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01941307222895132</v>
+        <v>0.01996563102239324</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0173115345851429</v>
+        <v>0.01693764889830574</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03531519274141988</v>
+        <v>0.03612152794151761</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01828984026637522</v>
+        <v>0.01858686383308958</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01769786637066382</v>
+        <v>0.01778122485380415</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02384106233169296</v>
+        <v>0.02484288627268438</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0375370414312794</v>
+        <v>0.03822511136773683</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02939752715101832</v>
+        <v>0.03058468847662274</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02188857044115446</v>
+        <v>0.02174600385487831</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05916616838460641</v>
+        <v>0.06212948436770705</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07282722496994302</v>
+        <v>0.07299541027386935</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07610962715153889</v>
+        <v>0.07643694805090499</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05370155085089304</v>
+        <v>0.05400017928132866</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04740220477531439</v>
+        <v>0.04609125207500746</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07536796855378666</v>
+        <v>0.07788607122060391</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05098952882511819</v>
+        <v>0.05069055602952731</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04149326513040323</v>
+        <v>0.0427545974426225</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04630115889118396</v>
+        <v>0.04806005458374862</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06540167248127497</v>
+        <v>0.06609127287003248</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05668835827340747</v>
+        <v>0.05612415869511712</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04294085037054892</v>
+        <v>0.04213905749119941</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.03096219437601095</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03748148394897632</v>
+        <v>0.03748148394897631</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02599858202942535</v>
+        <v>0.02447909012373809</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01515821289660155</v>
+        <v>0.01539574823979432</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01711729490606315</v>
+        <v>0.01567041353310277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02446141914456457</v>
+        <v>0.02566432644065945</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.003061134662430964</v>
+        <v>0.003005758589712253</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01250183517735857</v>
+        <v>0.01216991807915654</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01485050390656318</v>
+        <v>0.01465948374569838</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02111016510509244</v>
+        <v>0.02143039515747845</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0173003829705811</v>
+        <v>0.01707155689637587</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01961074923215329</v>
+        <v>0.01912317114331223</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01867629587716569</v>
+        <v>0.01892046568893685</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02739806694743131</v>
+        <v>0.02666442700113943</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07450218661227827</v>
+        <v>0.07431557471302352</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05874399909209763</v>
+        <v>0.05842332524241436</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0555070538069786</v>
+        <v>0.05484435289973116</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06385365736180497</v>
+        <v>0.06494819755012926</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03080195280619728</v>
+        <v>0.02842501026041147</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05584712205288363</v>
+        <v>0.05620559621251493</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05821902534966984</v>
+        <v>0.05464146486341492</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05478503597701118</v>
+        <v>0.05327876716012267</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04435229621096018</v>
+        <v>0.04246101741714811</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04706326219576205</v>
+        <v>0.04707549571178377</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04629016336002159</v>
+        <v>0.04792225643002133</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05325792720690582</v>
+        <v>0.05183881389075406</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007982972135366121</v>
+        <v>0.007925349369762042</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0214964019098439</v>
+        <v>0.0215934359562971</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04283465885800119</v>
+        <v>0.04568854897542918</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03856060202063463</v>
+        <v>0.03685009032398139</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02766388403736906</v>
+        <v>0.02811737738871551</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0280976379602862</v>
+        <v>0.02610940973864494</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04331745215793192</v>
+        <v>0.04699358472332606</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0565914433462465</v>
+        <v>0.05457362133995866</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02197575978849059</v>
+        <v>0.02180198258879367</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02964660088993246</v>
+        <v>0.02909273298622814</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05049483334574074</v>
+        <v>0.05323457839208072</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05115139598024582</v>
+        <v>0.05240081992726674</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03700495617180342</v>
+        <v>0.03811222472075721</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06830379553010302</v>
+        <v>0.06381534495863468</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09516257936813044</v>
+        <v>0.09830194259501014</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1028539360690437</v>
+        <v>0.1060280524150047</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07150038762956924</v>
+        <v>0.07085730161462413</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07287740984679857</v>
+        <v>0.0720985505801973</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1009316411200315</v>
+        <v>0.1020767510472896</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1036719492964209</v>
+        <v>0.1031174475688004</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04683829674080918</v>
+        <v>0.04693682302009392</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05816403807995345</v>
+        <v>0.05989184004426982</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09014179484055493</v>
+        <v>0.09102650927542222</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08887659095814746</v>
+        <v>0.09035783896565119</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.01980372416017305</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.109677116070789</v>
+        <v>0.1096771160707891</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.05392010123045884</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02441881576457107</v>
+        <v>0.02240511015841182</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01500227576189317</v>
+        <v>0.01576031621106493</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01224880044430668</v>
+        <v>0.01224747111891803</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05165836650355493</v>
+        <v>0.05150178360503551</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03393919630554498</v>
+        <v>0.03167213426608815</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03713246947295658</v>
+        <v>0.0384778227453365</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.00519742798103675</v>
+        <v>0.005025191245558782</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0864443048303936</v>
+        <v>0.08459290128313508</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03231839939736324</v>
+        <v>0.03483711663178245</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03252333378869526</v>
+        <v>0.03367462141818233</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01264891893400431</v>
+        <v>0.01281003753749351</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07604964624856168</v>
+        <v>0.07418167767659796</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08627163730798541</v>
+        <v>0.08694020073567894</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06697004129462661</v>
+        <v>0.06917106930634119</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06512453178784577</v>
+        <v>0.06109397689025915</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1140683964748539</v>
+        <v>0.1108428773411512</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1049798902933915</v>
+        <v>0.1024922860601164</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.105630344716053</v>
+        <v>0.107877012300083</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04623612005221977</v>
+        <v>0.04590271915103818</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1381366828539046</v>
+        <v>0.1395373333850623</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07965321949131375</v>
+        <v>0.07828025200259824</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0755489366470395</v>
+        <v>0.07795228507456405</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04580939735667543</v>
+        <v>0.04243692523333281</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1132047563146081</v>
+        <v>0.1137385652569044</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.01539884825302322</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.026508079738401</v>
+        <v>0.02650807973840099</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02176678276344322</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01090663990378997</v>
+        <v>0.01081046773879862</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0227541175026791</v>
+        <v>0.0194168974421345</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.007774819169823289</v>
+        <v>0.007217160584090503</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02219464310659129</v>
+        <v>0.02100562727285009</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.007083068869475012</v>
+        <v>0.007029895618047483</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02842670776657493</v>
+        <v>0.02888875398641826</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003729534646226396</v>
+        <v>0.00370494242792015</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01402575929204596</v>
+        <v>0.01407207569663144</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01077424780876263</v>
+        <v>0.01110167078134329</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03169812877084471</v>
+        <v>0.03154582076663739</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.009454109003440124</v>
+        <v>0.009311854366822341</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02153687394877385</v>
+        <v>0.02139825073586217</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04959084968005573</v>
+        <v>0.04792929243012049</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07233129377094308</v>
+        <v>0.07219778984078597</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04389324211971381</v>
+        <v>0.04536544179406671</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05772930995652369</v>
+        <v>0.05776962493493999</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04052755658732784</v>
+        <v>0.04061198922615807</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0836570636755205</v>
+        <v>0.08023968569438081</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03745750539488944</v>
+        <v>0.03824525693169897</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04443591274875375</v>
+        <v>0.04398870093542256</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03645864973161317</v>
+        <v>0.03694385343711082</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06958319526456566</v>
+        <v>0.06787586495772686</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03378442286559798</v>
+        <v>0.0318744374815193</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.0449489346008257</v>
+        <v>0.04691801671720644</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.02345510882869934</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07536574978498395</v>
+        <v>0.07536574978498396</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.01923575892554189</v>
@@ -1513,7 +1513,7 @@
         <v>0.02451488991467206</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07842499100563907</v>
+        <v>0.07842499100563909</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01879154206498376</v>
+        <v>0.01890015663064779</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02328737430004264</v>
+        <v>0.0245802385691032</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01341103611607963</v>
+        <v>0.01361554562254946</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05620901138155548</v>
+        <v>0.05651812300604346</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01031609277044993</v>
+        <v>0.01003747651485597</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02893798249118639</v>
+        <v>0.02861060889291351</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01508103035046442</v>
+        <v>0.01556289076197814</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06477739267352947</v>
+        <v>0.06599424282045629</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01699686042741252</v>
+        <v>0.0166557491484846</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0297678331374085</v>
+        <v>0.03003441038334432</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01690444899120989</v>
+        <v>0.01723798850210585</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06605033918092</v>
+        <v>0.06611043155854419</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04759033934958441</v>
+        <v>0.04619825330412874</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05384920749224739</v>
+        <v>0.05495623092210314</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03638684655140934</v>
+        <v>0.03698505501329043</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09666917124025894</v>
+        <v>0.0972906324960118</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03153401990065829</v>
+        <v>0.0316342572837064</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06236642427122495</v>
+        <v>0.06321986278681024</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04078520639491637</v>
+        <v>0.03896679945251072</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0974047466797303</v>
+        <v>0.09887340785395921</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03468133096517775</v>
+        <v>0.03366299529650007</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05179605089021698</v>
+        <v>0.05359494675562093</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03485548808584359</v>
+        <v>0.03383026873807006</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09186087522143047</v>
+        <v>0.09112511669088127</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.01837103480659482</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.0760975435185267</v>
+        <v>0.07609754351852668</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02045858134206218</v>
+        <v>0.02058492098007685</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02158352234746697</v>
+        <v>0.02030452856780438</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.009025941790453157</v>
+        <v>0.009189181515030927</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04842793521368144</v>
+        <v>0.04851729610682294</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01998348749582118</v>
+        <v>0.01933861913572917</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01420217034763095</v>
+        <v>0.01400725092210377</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01106500217426278</v>
+        <v>0.01142526770665099</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07301334229800864</v>
+        <v>0.07354660634974448</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0231574179692753</v>
+        <v>0.02271072181464763</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01981553387114585</v>
+        <v>0.01946883937305509</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01233681326910862</v>
+        <v>0.01171474685513806</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.06576009384616691</v>
+        <v>0.06503864653628243</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04609171798401113</v>
+        <v>0.04682820334521067</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05123032673040648</v>
+        <v>0.04785622568110169</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02741848142022666</v>
+        <v>0.02791113295007751</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.08160337407380708</v>
+        <v>0.0807234668855383</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04505384370068617</v>
+        <v>0.04561740215743564</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03794115956477323</v>
+        <v>0.03702941774059051</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03356810526764855</v>
+        <v>0.03433410980262812</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1049058949915608</v>
+        <v>0.1047892238134789</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04105876964816071</v>
+        <v>0.04130811792693356</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.03846095001776375</v>
+        <v>0.03740256064405996</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02736762174591175</v>
+        <v>0.02627286527933881</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08874346310432402</v>
+        <v>0.08929281019879924</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02871900396506423</v>
+        <v>0.0287844424725767</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03061496322051569</v>
+        <v>0.03052801165694937</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02863127859266876</v>
+        <v>0.02860936615282494</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.04921247863461222</v>
+        <v>0.04834947732354042</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02290135013024068</v>
+        <v>0.02270688371739783</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.03339624018432391</v>
+        <v>0.03371316454203181</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.02453899013770878</v>
+        <v>0.0247551100565492</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.05676079775955297</v>
+        <v>0.05695966577077938</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02677775560526552</v>
+        <v>0.0272110084014943</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.03374588138088692</v>
+        <v>0.03380531369621251</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.02843145918932089</v>
+        <v>0.02786326748044689</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.05491706575460673</v>
+        <v>0.05442755227088842</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04084603057471007</v>
+        <v>0.04132856043287213</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04409251885017718</v>
+        <v>0.04423705375002228</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.041467434612122</v>
+        <v>0.04113076547287464</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.06379730693654856</v>
+        <v>0.0628036006518419</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03417908653994418</v>
+        <v>0.03362272209657618</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04697741476441972</v>
+        <v>0.04695436037164726</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.03586803397292448</v>
+        <v>0.0363571456808409</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.06955029770133439</v>
+        <v>0.07045131145845128</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03513625489128989</v>
+        <v>0.0356365604755111</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.04330354237896432</v>
+        <v>0.04331974193934728</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.03672477391032956</v>
+        <v>0.03682832526660547</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.06478809320547968</v>
+        <v>0.06409718517103329</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8093</v>
+        <v>8550</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3743</v>
+        <v>3656</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9630</v>
+        <v>8672</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7254</v>
+        <v>7546</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1770</v>
+        <v>1779</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5274</v>
+        <v>5387</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5980</v>
+        <v>5453</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11620</v>
+        <v>11935</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8575</v>
+        <v>8809</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17552</v>
+        <v>18066</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>15581</v>
+        <v>14771</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22849</v>
+        <v>22970</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13970</v>
+        <v>14245</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26950</v>
+        <v>26286</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19219</v>
+        <v>19679</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10935</v>
+        <v>10291</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13944</v>
+        <v>15177</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18015</v>
+        <v>17618</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14451</v>
+        <v>14075</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>28531</v>
+        <v>28969</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>24324</v>
+        <v>24028</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>40035</v>
+        <v>38432</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>30627</v>
+        <v>30354</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12131</v>
+        <v>12001</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14609</v>
+        <v>14976</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17397</v>
+        <v>17202</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10301</v>
+        <v>10595</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8724</v>
+        <v>8536</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18497</v>
+        <v>18919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9567</v>
+        <v>9722</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9672</v>
+        <v>9717</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>23770</v>
+        <v>24769</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>38637</v>
+        <v>39345</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>30152</v>
+        <v>31369</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>23577</v>
+        <v>23424</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>29173</v>
+        <v>30634</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36816</v>
+        <v>36901</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38251</v>
+        <v>38415</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>28497</v>
+        <v>28655</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>23888</v>
+        <v>23228</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39475</v>
+        <v>40794</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>26672</v>
+        <v>26515</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22676</v>
+        <v>23365</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>46163</v>
+        <v>47917</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>67317</v>
+        <v>68027</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>58143</v>
+        <v>57564</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>46253</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8290</v>
+        <v>7805</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4912</v>
+        <v>4989</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5453</v>
+        <v>4992</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7730</v>
+        <v>8110</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1027</v>
+        <v>1008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4263</v>
+        <v>4150</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4994</v>
+        <v>4930</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7523</v>
+        <v>7637</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11319</v>
+        <v>11169</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13042</v>
+        <v>12718</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>12231</v>
+        <v>12391</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>18422</v>
+        <v>17928</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23755</v>
+        <v>23695</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19036</v>
+        <v>18932</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17683</v>
+        <v>17471</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20177</v>
+        <v>20523</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10331</v>
+        <v>9534</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19045</v>
+        <v>19167</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19580</v>
+        <v>18376</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>19524</v>
+        <v>18988</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29018</v>
+        <v>27780</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>31300</v>
+        <v>31308</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>30314</v>
+        <v>31383</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>35809</v>
+        <v>34855</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2863</v>
+        <v>2843</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8039</v>
+        <v>8076</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15847</v>
+        <v>16903</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14389</v>
+        <v>13750</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10276</v>
+        <v>10444</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10929</v>
+        <v>10155</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16776</v>
+        <v>18200</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>23879</v>
+        <v>23028</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>16045</v>
+        <v>15918</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>22618</v>
+        <v>22196</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>38237</v>
+        <v>40312</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>40671</v>
+        <v>41664</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13273</v>
+        <v>13670</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25544</v>
+        <v>23866</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>35207</v>
+        <v>36368</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>38379</v>
+        <v>39564</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26559</v>
+        <v>26320</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>28346</v>
+        <v>28043</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39089</v>
+        <v>39533</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>43746</v>
+        <v>43512</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34198</v>
+        <v>34270</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>44375</v>
+        <v>45693</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>68260</v>
+        <v>68930</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>70666</v>
+        <v>71844</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4965</v>
+        <v>4555</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3190</v>
+        <v>3351</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>2587</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10624</v>
+        <v>10592</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7048</v>
+        <v>6577</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8154</v>
+        <v>8449</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1136</v>
+        <v>1098</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>19789</v>
+        <v>19365</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>13282</v>
+        <v>14317</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>14057</v>
+        <v>14554</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5437</v>
+        <v>5506</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>33050</v>
+        <v>32238</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>17540</v>
+        <v>17676</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14239</v>
+        <v>14707</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13756</v>
+        <v>12904</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>23460</v>
+        <v>22797</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21801</v>
+        <v>21284</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>23195</v>
+        <v>23689</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>10107</v>
+        <v>10034</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>31622</v>
+        <v>31943</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>32736</v>
+        <v>32171</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>32653</v>
+        <v>33692</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>19689</v>
+        <v>18240</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>49197</v>
+        <v>49429</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2954</v>
+        <v>2928</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6234</v>
+        <v>5320</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2046</v>
+        <v>1899</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6008</v>
+        <v>5686</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1970</v>
+        <v>1955</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>7960</v>
+        <v>8090</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3699</v>
+        <v>3712</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5915</v>
+        <v>6094</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>17561</v>
+        <v>17477</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>5070</v>
+        <v>4993</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>11511</v>
+        <v>11436</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13430</v>
+        <v>12980</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19817</v>
+        <v>19781</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11549</v>
+        <v>11937</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15628</v>
+        <v>15639</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>11272</v>
+        <v>11296</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>23427</v>
+        <v>22470</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>10230</v>
+        <v>10445</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>11720</v>
+        <v>11602</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>20014</v>
+        <v>20281</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>38550</v>
+        <v>37604</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>18116</v>
+        <v>17092</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>24023</v>
+        <v>25076</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>11557</v>
+        <v>11624</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>15435</v>
+        <v>16291</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>8805</v>
+        <v>8939</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>40453</v>
+        <v>40675</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>6584</v>
+        <v>6406</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>20079</v>
+        <v>19852</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>10425</v>
+        <v>10759</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>50012</v>
+        <v>50951</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>21301</v>
+        <v>20874</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>40384</v>
+        <v>40746</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>22785</v>
+        <v>23234</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>98530</v>
+        <v>98620</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>29269</v>
+        <v>28413</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>35691</v>
+        <v>36424</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>23890</v>
+        <v>24283</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>69572</v>
+        <v>70019</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>20126</v>
+        <v>20190</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>43273</v>
+        <v>43865</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>28195</v>
+        <v>26938</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>75202</v>
+        <v>76336</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>43464</v>
+        <v>42188</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>70269</v>
+        <v>72709</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>46980</v>
+        <v>45598</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>137033</v>
+        <v>135935</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>15217</v>
+        <v>15311</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>16816</v>
+        <v>15819</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>7027</v>
+        <v>7155</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>38649</v>
+        <v>38720</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>15657</v>
+        <v>15152</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>11701</v>
+        <v>11540</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>9142</v>
+        <v>9439</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>60698</v>
+        <v>61142</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>35368</v>
+        <v>34686</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>31763</v>
+        <v>31208</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>19798</v>
+        <v>18799</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>107150</v>
+        <v>105974</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>34283</v>
+        <v>34831</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>39913</v>
+        <v>37285</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>21348</v>
+        <v>21731</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>65125</v>
+        <v>64423</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>35300</v>
+        <v>35742</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>31258</v>
+        <v>30507</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>27733</v>
+        <v>28366</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>87212</v>
+        <v>87115</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>62709</v>
+        <v>63090</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>61651</v>
+        <v>59954</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>43918</v>
+        <v>42161</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>144599</v>
+        <v>145494</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>94099</v>
+        <v>94313</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>104911</v>
+        <v>104613</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>97185</v>
+        <v>97110</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>173856</v>
+        <v>170807</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>77388</v>
+        <v>76731</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>118834</v>
+        <v>119962</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>86979</v>
+        <v>87746</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>212112</v>
+        <v>212856</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>178226</v>
+        <v>181109</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>235718</v>
+        <v>236133</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>197283</v>
+        <v>193340</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>399231</v>
+        <v>395673</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>133834</v>
+        <v>135415</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>151095</v>
+        <v>151591</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>140755</v>
+        <v>139612</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>225381</v>
+        <v>221870</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>115498</v>
+        <v>113618</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>167160</v>
+        <v>167078</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>127136</v>
+        <v>128869</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>259906</v>
+        <v>263273</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>233858</v>
+        <v>237188</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>302479</v>
+        <v>302592</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>254829</v>
+        <v>255548</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>470991</v>
+        <v>465968</v>
       </c>
     </row>
     <row r="40">
